--- a/03.Clasificacion/Other_cycles/Other_cycles_p/PorIntervalos/Par_Other_CiclosMotorwayT.xlsx
+++ b/03.Clasificacion/Other_cycles/Other_cycles_p/PorIntervalos/Par_Other_CiclosMotorwayT.xlsx
@@ -553,366 +553,366 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P_EPA_HWFET</t>
+          <t>EPA_HWFET</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16513.47185</v>
+        <v>5983.17741</v>
       </c>
       <c r="C2" t="n">
-        <v>765</v>
+        <v>317</v>
       </c>
       <c r="D2" t="n">
-        <v>77.60901</v>
+        <v>67.73408000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>96.43899999999999</v>
+        <v>79.69499999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>87.024</v>
+        <v>73.71454</v>
       </c>
       <c r="G2" t="n">
-        <v>0.17179</v>
+        <v>0.22179</v>
       </c>
       <c r="H2" t="n">
         <v>1.44602</v>
       </c>
       <c r="I2" t="n">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="J2" t="n">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="K2" t="n">
-        <v>364</v>
+        <v>181</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0602</v>
+        <v>0.09233</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.17257</v>
+        <v>-0.17439</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.53546</v>
+        <v>-1.14042</v>
       </c>
       <c r="O2" t="n">
-        <v>0.78431</v>
+        <v>0.94637</v>
       </c>
       <c r="P2" t="n">
-        <v>99.34641000000001</v>
+        <v>99.36909</v>
       </c>
       <c r="Q2" t="n">
-        <v>52.02614</v>
+        <v>42.58675</v>
       </c>
       <c r="R2" t="n">
-        <v>47.32026</v>
+        <v>56.78233</v>
       </c>
       <c r="S2" t="n">
-        <v>46.70491</v>
+        <v>23.78104</v>
       </c>
       <c r="T2" t="n">
-        <v>0.00283</v>
+        <v>0.00397</v>
       </c>
       <c r="U2" t="n">
-        <v>131.88956</v>
+        <v>64.55653</v>
       </c>
       <c r="V2" t="n">
-        <v>0.007990000000000001</v>
+        <v>0.01079</v>
       </c>
       <c r="W2" t="n">
-        <v>131.16489</v>
+        <v>64.19986</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P_EPA_US06</t>
+          <t>EPA_US06</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11673.61806</v>
+        <v>5978.41822</v>
       </c>
       <c r="C3" t="n">
-        <v>451</v>
+        <v>257</v>
       </c>
       <c r="D3" t="n">
-        <v>92.97572</v>
+        <v>83.41979000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>129.283</v>
+        <v>116.081</v>
       </c>
       <c r="F3" t="n">
-        <v>111.12936</v>
+        <v>99.75039</v>
       </c>
       <c r="G3" t="n">
-        <v>0.40009</v>
+        <v>0.51936</v>
       </c>
       <c r="H3" t="n">
         <v>3.5256</v>
       </c>
       <c r="I3" t="n">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="J3" t="n">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="K3" t="n">
-        <v>304</v>
+        <v>179</v>
       </c>
       <c r="L3" t="n">
-        <v>0.14506</v>
+        <v>0.21567</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.3934</v>
+        <v>-0.38263</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.84359</v>
+        <v>-2.6237</v>
       </c>
       <c r="O3" t="n">
-        <v>3.54767</v>
+        <v>5.83658</v>
       </c>
       <c r="P3" t="n">
-        <v>96.67406</v>
+        <v>94.55253</v>
       </c>
       <c r="Q3" t="n">
-        <v>30.37694</v>
+        <v>26.45914</v>
       </c>
       <c r="R3" t="n">
-        <v>66.29712000000001</v>
+        <v>68.09339</v>
       </c>
       <c r="S3" t="n">
-        <v>94.93037</v>
+        <v>54.08407</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00813</v>
+        <v>0.009050000000000001</v>
       </c>
       <c r="U3" t="n">
-        <v>179.31375</v>
+        <v>118.6816</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01536</v>
+        <v>0.01985</v>
       </c>
       <c r="W3" t="n">
-        <v>176.36451</v>
+        <v>116.02949</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P_NEDC ECE</t>
+          <t>NEDC ECE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6954.72234</v>
+        <v>5963.00937</v>
       </c>
       <c r="C4" t="n">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="D4" t="n">
-        <v>62.5925</v>
+        <v>63.88939</v>
       </c>
       <c r="E4" t="n">
         <v>120</v>
       </c>
       <c r="F4" t="n">
-        <v>91.29625</v>
+        <v>91.94468999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.19196</v>
+        <v>0.19298</v>
       </c>
       <c r="H4" t="n">
         <v>0.90278</v>
       </c>
       <c r="I4" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09417</v>
+        <v>0.10983</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.20588</v>
+        <v>-0.04737</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.50463</v>
+        <v>-0.75231</v>
       </c>
       <c r="O4" t="n">
-        <v>10.27569</v>
+        <v>5.97015</v>
       </c>
       <c r="P4" t="n">
-        <v>89.97494</v>
+        <v>94.32836</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.62907</v>
+        <v>58.80597</v>
       </c>
       <c r="R4" t="n">
-        <v>38.34586</v>
+        <v>35.52239</v>
       </c>
       <c r="S4" t="n">
-        <v>14.46762</v>
+        <v>10.57873</v>
       </c>
       <c r="T4" t="n">
-        <v>0.00208</v>
+        <v>0.00177</v>
       </c>
       <c r="U4" t="n">
-        <v>79.47049</v>
+        <v>45.76679</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01143</v>
+        <v>0.00768</v>
       </c>
       <c r="W4" t="n">
-        <v>77.94221</v>
+        <v>45.3854</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P_RDE_95</t>
+          <t>RDE_95</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57042.59815</v>
+        <v>5972.67593</v>
       </c>
       <c r="C5" t="n">
-        <v>2800</v>
+        <v>496</v>
       </c>
       <c r="D5" t="n">
-        <v>73.3143</v>
+        <v>43.26284</v>
       </c>
       <c r="E5" t="n">
-        <v>159.29</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>116.30215</v>
+        <v>71.37642</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5265300000000001</v>
+        <v>0.70903</v>
       </c>
       <c r="H5" t="n">
         <v>2.19259</v>
       </c>
       <c r="I5" t="n">
-        <v>1151</v>
+        <v>223</v>
       </c>
       <c r="J5" t="n">
-        <v>1057</v>
+        <v>188</v>
       </c>
       <c r="K5" t="n">
-        <v>2208</v>
+        <v>411</v>
       </c>
       <c r="L5" t="n">
-        <v>0.21728</v>
+        <v>0.36522</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.59766</v>
+        <v>-0.7598</v>
       </c>
       <c r="N5" t="n">
         <v>-2.19051</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1.00806</v>
       </c>
       <c r="P5" t="n">
-        <v>98.03570999999999</v>
+        <v>99.19355</v>
       </c>
       <c r="Q5" t="n">
-        <v>19.17857</v>
+        <v>16.33065</v>
       </c>
       <c r="R5" t="n">
-        <v>78.85714</v>
+        <v>82.8629</v>
       </c>
       <c r="S5" t="n">
-        <v>552.59028</v>
+        <v>153.08287</v>
       </c>
       <c r="T5" t="n">
-        <v>0.009690000000000001</v>
+        <v>0.02563</v>
       </c>
       <c r="U5" t="n">
-        <v>1568.13356</v>
+        <v>363.65856</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02749</v>
+        <v>0.06089</v>
       </c>
       <c r="W5" t="n">
-        <v>1568.13356</v>
+        <v>363.65856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P_WLTC Class3</t>
+          <t>WLTC Class3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15412.11111</v>
+        <v>5972.69213</v>
       </c>
       <c r="C6" t="n">
-        <v>777</v>
+        <v>327</v>
       </c>
       <c r="D6" t="n">
-        <v>71.31568</v>
+        <v>65.55394</v>
       </c>
       <c r="E6" t="n">
-        <v>131.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>101.30784</v>
+        <v>81.47696999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3538</v>
+        <v>0.39892</v>
       </c>
       <c r="H6" t="n">
         <v>1.66204</v>
       </c>
       <c r="I6" t="n">
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="J6" t="n">
-        <v>251</v>
+        <v>86</v>
       </c>
       <c r="K6" t="n">
-        <v>514</v>
+        <v>190</v>
       </c>
       <c r="L6" t="n">
-        <v>0.12391</v>
+        <v>0.12852</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.32085</v>
+        <v>-0.25905</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.57639</v>
+        <v>-1.5162</v>
       </c>
       <c r="O6" t="n">
-        <v>4.7619</v>
+        <v>1.22324</v>
       </c>
       <c r="P6" t="n">
-        <v>95.3668</v>
+        <v>99.08257</v>
       </c>
       <c r="Q6" t="n">
-        <v>29.72973</v>
+        <v>40.97859</v>
       </c>
       <c r="R6" t="n">
-        <v>65.63706999999999</v>
+        <v>58.10398</v>
       </c>
       <c r="S6" t="n">
-        <v>80.4537</v>
+        <v>35.11574</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00522</v>
+        <v>0.00588</v>
       </c>
       <c r="U6" t="n">
-        <v>261.81019</v>
+        <v>107.7662</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01699</v>
+        <v>0.01804</v>
       </c>
       <c r="W6" t="n">
-        <v>259.77275</v>
+        <v>107.7662</v>
       </c>
     </row>
   </sheetData>
